--- a/data/output/Pedido_Semana_06_13022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_mascotas_vivo.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2707060003</t>
@@ -727,13 +727,13 @@
         <v>32</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>165.6</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>99.36</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7" t="inlineStr">
         <is>
@@ -741,25 +741,25 @@
         </is>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>2707010002</t>
@@ -808,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>42.5</v>
+        <v>21.25</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>25.5</v>
+        <v>12.75</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" hidden="1">
@@ -1294,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7.12</v>
+        <v>14.25</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.27</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2707030001</t>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22.75</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1389,22 +1389,22 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1456,13 +1456,13 @@
         <v>3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>37.2</v>
+        <v>49.6</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>22.32</v>
+        <v>29.76</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2707050003</t>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>4.23</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1650,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2707110016</t>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>2707130001</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>4.23</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,25 +1794,25 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>2707130002</t>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>15.05</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,25 +1875,25 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>2707130043</t>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1956,22 +1956,22 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2023,13 +2023,13 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10.8</v>
+        <v>28.8</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>6.48</v>
+        <v>17.28</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -2104,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>350</v>
+        <v>262.5</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>210</v>
+        <v>157.5</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,25 +2118,25 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>2104060001</t>
@@ -2188,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIL RUIZ, DAVID                                                                                                         </t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="O21" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GIL RUIZ, DAVID                                                                                                         </t>
-        </is>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>2707010004</t>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U23" s="8" t="n">
         <v>6</v>
@@ -2460,7 +2460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>2204030001</t>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>34.85</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>20.91</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2671,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>58.1</v>
+        <v>116.2</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>34.86</v>
+        <v>69.72</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>13.8</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>2707050013</t>
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>2707010003</t>
@@ -2995,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,25 +3009,25 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>2707040002</t>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>2707190005</t>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,25 +3171,25 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>2708010004</t>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3333,19 +3333,19 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U35" s="8" t="n">
         <v>2</v>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>1226.16€</t>
+          <t>841.82€</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
